--- a/biology/Botanique/Tillandsia_ultima/Tillandsia_ultima.xlsx
+++ b/biology/Botanique/Tillandsia_ultima/Tillandsia_ultima.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tillandsia ultima L.B.Sm. est une espèce de plantes de la famille des Bromeliaceae.
 L'épithète ultima, signifiant « la plus lointaine, la dernière », se rapporte à l'habitat de la plante trouvée en altitude à la limite des arbres.
@@ -512,13 +524,15 @@
           <t>Protologue et Type nomenclatural</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Tillandsia ultima L.B.Sm., in Contr. U.S. Natl. Herb. 29: 442, fig. 45c-e (1951)
-Diagnose originale[1] :
+Diagnose originale :
 « A T. compacta Grisebach, cui affinis, omnibus, partibus majoribus, foliis valde acutioribus differt. »
 Type :
-leg. M.B. &amp; R. Foster &amp; E. Smith, no 1460, 1946-08-19 ; « in the last line of trees on the mountain-side above Aduriameina, Sierra Nevada de Santa Marta, Department of Magdalena, Colombia, altitude 3,000 meters »[1] ; Holotypus GH (Gray Herbarium) (GH 29463)
+leg. M.B. &amp; R. Foster &amp; E. Smith, no 1460, 1946-08-19 ; « in the last line of trees on the mountain-side above Aduriameina, Sierra Nevada de Santa Marta, Department of Magdalena, Colombia, altitude 3,000 meters » ; Holotypus GH (Gray Herbarium) (GH 29463)
 leg. M.B. &amp; R. Foster &amp; E. Smith, no 1460, 1946-08-19 ; « Colombia. Magdalena: above Aduriameina, Sierra Nevada de Santa Marta. 10,000 ft. [3 048 m] » ; Isotypus US National Herbarium (US 00091131)</t>
         </is>
       </c>
@@ -547,7 +561,9 @@
           <t>Synonymie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(aucune)</t>
         </is>
@@ -578,6 +594,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -603,11 +621,13 @@
           <t>Écologie et habitat</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Typologie : plante herbacée en rosette, monocarpique, vivace par ses rejets latéraux ; plante mal connue sans doute épiphyte[2].
-Habitat : lisière de forêt d'altitude[1].
-Altitude : 3 000 m[1].</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Typologie : plante herbacée en rosette, monocarpique, vivace par ses rejets latéraux ; plante mal connue sans doute épiphyte.
+Habitat : lisière de forêt d'altitude.
+Altitude : 3 000 m.</t>
         </is>
       </c>
     </row>
@@ -635,11 +655,13 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Amérique du Sud :
  Colombie
-Magdalena[1]</t>
+Magdalena</t>
         </is>
       </c>
     </row>
@@ -667,7 +689,9 @@
           <t>Comportement en culture</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Tillandsia ultima L.B.Sm. est une plante mal connue qui ne semble pas avoir été introduite en culture.
 </t>
